--- a/Date funtion.xlsx
+++ b/Date funtion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nikhi\OneDrive\Desktop\EXCEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{41E03448-59C8-4CA9-8AAF-B572257EA5DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE25E2D5-49E4-4535-A88E-94D6D8512674}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>OrderID</t>
   </si>
@@ -88,6 +88,30 @@
   </si>
   <si>
     <t>Datediff()</t>
+  </si>
+  <si>
+    <t>Edate</t>
+  </si>
+  <si>
+    <t>Edate = exect date after /before interval</t>
+  </si>
+  <si>
+    <t>Eomonth = end date of month after interval</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Eomonth</t>
+  </si>
+  <si>
+    <t>Holidays</t>
+  </si>
+  <si>
+    <t>Working day</t>
+  </si>
+  <si>
+    <t>Networkdays</t>
+  </si>
+  <si>
+    <t>Networkdays.INLT</t>
   </si>
 </sst>
 </file>
@@ -97,7 +121,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -126,6 +150,13 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -141,7 +172,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="33">
+  <borders count="34">
     <border>
       <left/>
       <right/>
@@ -545,28 +576,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
@@ -574,40 +601,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
@@ -629,14 +629,89 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -954,10 +1029,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="69" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -965,328 +1040,451 @@
     <col min="1" max="1" width="7.69921875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29.796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.3984375" customWidth="1"/>
     <col min="5" max="5" width="33.8984375" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="30.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="21.296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="52" t="s">
+      <c r="B1" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="47" t="s">
+      <c r="C1" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="46" t="s">
+      <c r="D1" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="46" t="s">
+      <c r="E1" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="46" t="s">
+      <c r="F1" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="48" t="s">
+      <c r="G1" s="34" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="35">
+      <c r="A2" s="21">
         <v>101</v>
       </c>
-      <c r="B2" s="42">
+      <c r="B2" s="28">
         <v>45296</v>
       </c>
-      <c r="C2" s="43">
+      <c r="C2" s="29">
         <v>45297</v>
       </c>
-      <c r="D2" s="42">
+      <c r="D2" s="28">
         <v>45301</v>
       </c>
-      <c r="E2" s="42">
+      <c r="E2" s="28">
         <v>45296</v>
       </c>
-      <c r="F2" s="44">
+      <c r="F2" s="30">
         <v>1200</v>
       </c>
-      <c r="G2" s="45">
+      <c r="G2" s="31">
         <f>DATEDIF(B2,D2,"d")</f>
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="36">
+      <c r="A3" s="22">
         <v>102</v>
       </c>
-      <c r="B3" s="38">
+      <c r="B3" s="24">
         <v>45306</v>
       </c>
-      <c r="C3" s="40">
+      <c r="C3" s="26">
         <v>45308</v>
       </c>
-      <c r="D3" s="38">
+      <c r="D3" s="24">
         <v>45313</v>
       </c>
-      <c r="E3" s="38">
+      <c r="E3" s="24">
         <v>45307</v>
       </c>
-      <c r="F3" s="32">
+      <c r="F3" s="18">
         <v>850</v>
       </c>
-      <c r="G3" s="30">
+      <c r="G3" s="16">
         <f t="shared" ref="G3:G6" si="0">DATEDIF(B3,D3,"d")</f>
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="36">
+      <c r="A4" s="22">
         <v>103</v>
       </c>
-      <c r="B4" s="38">
+      <c r="B4" s="24">
         <v>45350</v>
       </c>
-      <c r="C4" s="40">
+      <c r="C4" s="26">
         <v>45351</v>
       </c>
-      <c r="D4" s="38">
+      <c r="D4" s="24">
         <v>45356</v>
       </c>
-      <c r="E4" s="38">
+      <c r="E4" s="24">
         <v>45350</v>
       </c>
-      <c r="F4" s="32">
+      <c r="F4" s="18">
         <v>1500</v>
       </c>
-      <c r="G4" s="30">
+      <c r="G4" s="16">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="36">
+      <c r="A5" s="22">
         <v>104</v>
       </c>
-      <c r="B5" s="38">
+      <c r="B5" s="24">
         <v>45382</v>
       </c>
-      <c r="C5" s="40">
+      <c r="C5" s="26">
         <v>45383</v>
       </c>
-      <c r="D5" s="38">
+      <c r="D5" s="24">
         <v>45389</v>
       </c>
-      <c r="E5" s="38">
+      <c r="E5" s="24">
         <v>45382</v>
       </c>
-      <c r="F5" s="32">
+      <c r="F5" s="18">
         <v>980</v>
       </c>
-      <c r="G5" s="30">
+      <c r="G5" s="16">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="37">
+      <c r="A6" s="23">
         <v>105</v>
       </c>
-      <c r="B6" s="39">
+      <c r="B6" s="25">
         <v>45453</v>
       </c>
-      <c r="C6" s="41">
+      <c r="C6" s="27">
         <v>45455</v>
       </c>
-      <c r="D6" s="39">
+      <c r="D6" s="25">
         <v>45461</v>
       </c>
-      <c r="E6" s="39">
+      <c r="E6" s="25">
         <v>45454</v>
       </c>
-      <c r="F6" s="33">
+      <c r="F6" s="19">
         <v>2200</v>
       </c>
-      <c r="G6" s="31">
+      <c r="G6" s="17">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="19" t="s">
+      <c r="G8" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="H8" s="20"/>
-      <c r="I8" s="21"/>
+      <c r="H8" s="43"/>
+      <c r="I8" s="44"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="49"/>
-      <c r="I9" s="50"/>
+      <c r="B9" s="50"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="46"/>
+      <c r="H9" s="47"/>
+      <c r="I9" s="48"/>
     </row>
     <row r="10" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="7">
+      <c r="B10" s="2">
         <f>DAY(B2)</f>
         <v>5</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="3">
         <f>MONTH(B2)</f>
         <v>1</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="4">
         <f>YEAR(B2)</f>
         <v>2024</v>
       </c>
-      <c r="E10" s="10">
+      <c r="E10" s="5">
         <f ca="1">TODAY()</f>
-        <v>46055</v>
-      </c>
-      <c r="F10" s="11">
+        <v>46056</v>
+      </c>
+      <c r="F10" s="6">
         <f ca="1">NOW()</f>
-        <v>46055.435828240741</v>
-      </c>
-      <c r="G10" s="51">
+        <v>46056.410063773146</v>
+      </c>
+      <c r="G10" s="35">
         <v>37286</v>
       </c>
-      <c r="H10" s="51">
+      <c r="H10" s="35">
         <f ca="1">TODAY()</f>
-        <v>46055</v>
-      </c>
-      <c r="I10" s="26" t="str">
+        <v>46056</v>
+      </c>
+      <c r="I10" s="13" t="str">
         <f ca="1">DATEDIF(G10,H10,"y")&amp;  " Year " &amp; DATEDIF(G10,H10,"ym") &amp; " month " &amp; DATEDIF(G10,H10,"md")&amp; " days "</f>
-        <v xml:space="preserve">24 Year 0 month 3 days </v>
+        <v xml:space="preserve">24 Year 0 month 4 days </v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="12" spans="1:9" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="27" t="s">
+      <c r="C12" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="19" t="s">
+      <c r="D12" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="20"/>
-      <c r="F12" s="21"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="44"/>
     </row>
     <row r="13" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="6"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23">
+      <c r="B13" s="50"/>
+      <c r="C13" s="52"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10">
         <v>3</v>
       </c>
-      <c r="F13" s="29">
+      <c r="F13" s="15">
         <f>DATE(E15,E14,E13)</f>
         <v>40942</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="7">
+      <c r="B14" s="2">
         <f ca="1">WEEKDAY(E10,2)</f>
-        <v>1</v>
-      </c>
-      <c r="C14" s="16">
+        <v>2</v>
+      </c>
+      <c r="C14" s="7">
         <f ca="1">WEEKNUM(E10,2)</f>
         <v>6</v>
       </c>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28">
+      <c r="D14" s="14"/>
+      <c r="E14" s="14">
         <v>2</v>
       </c>
-      <c r="F14" s="30"/>
+      <c r="F14" s="16"/>
     </row>
     <row r="15" spans="1:9" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D15" s="24"/>
-      <c r="E15" s="24">
+      <c r="D15" s="11"/>
+      <c r="E15" s="11">
         <v>2012</v>
       </c>
-      <c r="F15" s="31"/>
+      <c r="F15" s="17"/>
       <c r="I15" s="1"/>
     </row>
     <row r="16" spans="1:9" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="18"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="9"/>
     </row>
     <row r="17" spans="2:6" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="4"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="39"/>
     </row>
     <row r="18" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="19" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="12" t="s">
+      <c r="C19" s="40" t="s">
         <v>16</v>
       </c>
+      <c r="D19" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19" s="44" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="20" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="22"/>
-      <c r="C20" s="13"/>
+      <c r="B20" s="45"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="48"/>
     </row>
     <row r="21" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="26" t="str">
+      <c r="B21" s="13" t="str">
         <f>TEXT(B2,"dddd  dd  mmm  yyyy")</f>
         <v>Friday  05  Jan  2024</v>
       </c>
-      <c r="C21" s="26" t="str">
+      <c r="C21" s="53" t="str">
         <f>"Today is "&amp; TEXT(B2,"dddd mmm dd yyyy")</f>
         <v>Today is Friday Jan 05 2024</v>
       </c>
+      <c r="D21" s="35">
+        <f>EDATE(B2,2)</f>
+        <v>45356</v>
+      </c>
+      <c r="E21" s="35">
+        <f>EOMONTH(B2,2)</f>
+        <v>45382</v>
+      </c>
     </row>
     <row r="22" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="25" t="str">
+      <c r="B22" s="12" t="str">
         <f>TEXT(B2,"dd mmmm yyyy")</f>
         <v>05 January 2024</v>
       </c>
-      <c r="C22" s="25"/>
+      <c r="C22" s="54"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+    </row>
+    <row r="23" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="55"/>
+      <c r="C23" s="55"/>
+      <c r="D23" s="55"/>
+      <c r="E23" s="55"/>
+      <c r="F23" s="55"/>
+    </row>
+    <row r="24" spans="2:6" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="55"/>
+      <c r="C24" s="55"/>
+      <c r="D24" s="55"/>
+      <c r="E24" s="55"/>
+      <c r="F24" s="55"/>
+    </row>
+    <row r="25" spans="2:6" ht="21.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" s="57"/>
+      <c r="D25" s="57"/>
+      <c r="E25" s="57"/>
+      <c r="F25" s="58"/>
+    </row>
+    <row r="26" spans="2:6" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="56" t="s">
+        <v>21</v>
+      </c>
+      <c r="C26" s="57"/>
+      <c r="D26" s="57"/>
+      <c r="E26" s="57"/>
+      <c r="F26" s="58"/>
+    </row>
+    <row r="27" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C27" s="63"/>
+      <c r="D27" s="61"/>
+      <c r="E27" s="61"/>
+      <c r="F27" s="55"/>
+    </row>
+    <row r="28" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C28" s="62"/>
+      <c r="D28" s="61"/>
+      <c r="E28" s="61"/>
+    </row>
+    <row r="29" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="64" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29" s="65" t="s">
+        <v>23</v>
+      </c>
+      <c r="D29" s="59" t="s">
+        <v>25</v>
+      </c>
+      <c r="E29" s="59" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="35">
+        <v>45292</v>
+      </c>
+      <c r="C30" s="35">
+        <v>45301</v>
+      </c>
+      <c r="D30" s="60"/>
+      <c r="E30" s="60"/>
+    </row>
+    <row r="31" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="35">
+        <v>45322</v>
+      </c>
+      <c r="C31" s="35">
+        <v>45317</v>
+      </c>
+      <c r="D31" s="13">
+        <f>NETWORKDAYS(B30,B31,C30:C32)</f>
+        <v>21</v>
+      </c>
+      <c r="E31" s="13">
+        <f>NETWORKDAYS.INTL(B30,B31,11,C30:C32)</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="13"/>
+      <c r="C32" s="35">
+        <v>45305</v>
+      </c>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+    </row>
+    <row r="33" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D33" s="62"/>
+      <c r="E33" s="62"/>
+    </row>
+    <row r="34" spans="4:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D34" s="62"/>
+      <c r="E34" s="62"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="18">
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="B25:F25"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="G8:I9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="F8:F9"/>
     <mergeCell ref="B17:F17"/>
     <mergeCell ref="E8:E9"/>
     <mergeCell ref="D12:F12"/>
     <mergeCell ref="B19:B20"/>
     <mergeCell ref="C19:C20"/>
-    <mergeCell ref="G8:I9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="F8:F9"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
